--- a/unity_2018_4/Assets/Editor/Excel/excel.xlsx
+++ b/unity_2018_4/Assets/Editor/Excel/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="convert" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,8 +16,8 @@
     <sheet name="se_header" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="se_list" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="data_list" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="assetbundle_list" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="textid" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="assetbundle_list" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="121">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">&lt;json&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Data/ConvertFromExcel/test_json.json</t>
+    <t xml:space="preserve">Editor/Excel_Output/test_json.json</t>
   </si>
   <si>
     <t xml:space="preserve">test_json_1</t>
@@ -413,34 +413,40 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">&lt;assetbundleitem&gt;</t>
+    <t xml:space="preserve">&lt;assets_prefab&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">se</t>
   </si>
   <si>
-    <t xml:space="preserve">se.pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assets/Data/ConvertFromExcel/excel_to_se_prefab.prefab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;resourcesitem&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texture/button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assetbundle_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assetbundle_json</t>
+    <t xml:space="preserve">Editor/Prefab/se.prefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アセットパス。プレハブ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;resources_texture&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ui_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common/Texture/ui_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リソースパス。テクスチャー。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ui_button_active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common/Texture/ui_button_active</t>
   </si>
   <si>
     <t xml:space="preserve">textid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -499,6 +505,12 @@
       </rPr>
       <t xml:space="preserve">TEXTID_COMMON_GOLD&gt;&gt;獲得しました。</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">assetbundle_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assetbundle_json</t>
   </si>
 </sst>
 </file>
@@ -921,7 +933,7 @@
   <dimension ref="C6:J16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="F7 E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1028,9 +1040,7 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1047,9 +1057,7 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1066,9 +1074,7 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1085,9 +1091,7 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
@@ -1102,9 +1106,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1139,19 +1141,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:E15"/>
+  <dimension ref="C6:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="7" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,9 +1163,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="0"/>
+        <v>31</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
@@ -1173,84 +1180,64 @@
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>112</v>
+        <v>65</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="5"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1273,7 +1260,7 @@
   <dimension ref="C6:Q14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="1" sqref="F7 G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1651,7 +1638,7 @@
   <dimension ref="C6:Q14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="F7 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2029,7 +2016,7 @@
   <dimension ref="C6:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="1" sqref="F7 F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2187,7 +2174,7 @@
   <dimension ref="C6:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="F7 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2345,7 +2332,7 @@
   <dimension ref="C6:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="F7 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2491,7 +2478,7 @@
   <dimension ref="C6:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="1" sqref="F7 H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2733,23 +2720,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:H15"/>
+  <dimension ref="C6:I15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="1" sqref="F7 I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="43.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="9" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1016" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="10" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,7 +2750,8 @@
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
@@ -2781,6 +2770,9 @@
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2800,6 +2792,7 @@
       <c r="G8" s="10" t="s">
         <v>98</v>
       </c>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5"/>
@@ -2807,6 +2800,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
@@ -2819,9 +2813,12 @@
         <v>100</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2831,6 +2828,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
@@ -2842,19 +2840,31 @@
       <c r="E12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="6" t="s">
         <v>105</v>
       </c>
+      <c r="H12" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2"/>
@@ -2862,6 +2872,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
@@ -2884,21 +2895,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:F16"/>
+  <dimension ref="C6:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="7" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,10 +2915,11 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
@@ -2930,55 +2940,74 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>113</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/unity_2018_4/Assets/Editor/Excel/excel.xlsx
+++ b/unity_2018_4/Assets/Editor/Excel/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="convert" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,6 @@
     <sheet name="se_list" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="data_list" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="textid" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="assetbundle_list" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="121">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -83,216 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;enum&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/ConvertFromExcel/test_enum.cs.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_enum_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_enum_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/ConvertFromExcel/excel_to_se_enum.cs.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se_header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;se&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/ConvertFromExcel/excel_to_se_prefab.prefab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;data&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/ConvertFromExcel/data.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;assetbundle&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/ConvertFromExcel/AssetBundle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assetbundle_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sortvalue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vlaue_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NormalItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アイテム１</t>
-  </si>
-  <si>
-    <t xml:space="preserve">説明１</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アイテム２</t>
-  </si>
-  <si>
-    <t xml:space="preserve">説明２</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpecialItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アイテム３</t>
-  </si>
-  <si>
-    <t xml:space="preserve">説明３</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum_comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;namespace&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game.Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;enumname&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ItemType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アイテムタイプ（自動生成）。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;item&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エラー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普通のアイテム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">すんごいアイテム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">連結なので記述不要</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddType1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">追加のアイテム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddType2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddType3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se_volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game.Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SeType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自動生成。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">効果音１。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data/Se/water-drop3_1.mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">効果音２。</t>
   </si>
   <si>
     <r>
@@ -302,7 +91,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Data/Se</t>
+      <t xml:space="preserve">Editor/Excel_Output/</t>
     </r>
     <r>
       <rPr>
@@ -311,14 +100,14 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/water-drop3_2.mp3</t>
+      <t xml:space="preserve">test_enum.cs.txt</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Se3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">効果音３。</t>
+    <t xml:space="preserve">test_enum_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_enum_2</t>
   </si>
   <si>
     <r>
@@ -328,7 +117,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Data/Se</t>
+      <t xml:space="preserve">Editor/Excel_Output/</t>
     </r>
     <r>
       <rPr>
@@ -337,14 +126,17 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/water-drop3_3.mp3</t>
+      <t xml:space="preserve">se.cs.txt</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Se4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">効果音４。</t>
+    <t xml:space="preserve">se_header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;se&gt;</t>
   </si>
   <si>
     <r>
@@ -354,7 +146,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Data/Se</t>
+      <t xml:space="preserve">Editor/Excel_Output/</t>
     </r>
     <r>
       <rPr>
@@ -363,7 +155,279 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/water-drop3_4.mp3</t>
+      <t xml:space="preserve">se.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;editordata&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Editor/Excel_Output/editor_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">data.json</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">data_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;releasedata&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/Excel_Output/release_data.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sortvalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vlaue_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NormalItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アイテム１</t>
+  </si>
+  <si>
+    <t xml:space="preserve">説明１</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アイテム２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">説明２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpecialItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アイテム３</t>
+  </si>
+  <si>
+    <t xml:space="preserve">説明３</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum_comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;namespace&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game.Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;enumname&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アイテムタイプ（自動生成）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;item&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普通のアイテム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すんごいアイテム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">連結なので記述不要</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddType1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追加のアイテム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddType2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddType3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game.Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自動生成。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">効果音１。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/Raw/Se/water-drop3_1.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">効果音２。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Editor/Raw/Se/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">water-drop3_2.mp3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Se3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">効果音３。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Editor/Raw/Se/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">water-drop3_3.mp3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Se4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">効果音４。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Editor/Raw/Se/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">water-drop3_4.mp3</t>
     </r>
   </si>
   <si>
@@ -390,9 +454,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">data_packname</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -413,16 +474,45 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">&lt;assets_prefab&gt;</t>
+    <t xml:space="preserve">data_packname</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">resources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_prefab&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">se</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/Prefab/se.prefab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アセットパス。プレハブ。</t>
+    <t xml:space="preserve">Editor/Prefab/se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se.assetbundle</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;resources_texture&gt;</t>
@@ -434,13 +524,22 @@
     <t xml:space="preserve">Common/Texture/ui_button</t>
   </si>
   <si>
-    <t xml:space="preserve">リソースパス。テクスチャー。</t>
+    <t xml:space="preserve">&lt;streamingassets_texture&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">ui_button_active</t>
   </si>
   <si>
-    <t xml:space="preserve">Common/Texture/ui_button_active</t>
+    <t xml:space="preserve">Common/Texture/skyimage.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;url_text&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test04_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bbbproject.sakura.ne.jp/www/project_webgl/Test04/text.txt</t>
   </si>
   <si>
     <t xml:space="preserve">textid</t>
@@ -506,12 +605,6 @@
       <t xml:space="preserve">TEXTID_COMMON_GOLD&gt;&gt;獲得しました。</t>
     </r>
   </si>
-  <si>
-    <t xml:space="preserve">assetbundle_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assetbundle_json</t>
-  </si>
 </sst>
 </file>
 
@@ -520,7 +613,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
@@ -609,6 +702,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
       <charset val="1"/>
@@ -792,7 +892,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -834,6 +934,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -933,7 +1037,7 @@
   <dimension ref="C6:J16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="F7 E21"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1040,11 +1144,13 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -1057,11 +1163,13 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1074,11 +1182,13 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1091,11 +1201,13 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -1106,135 +1218,21 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="C6:F16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="7" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="10.96"/>
-  </cols>
-  <sheetData>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
@@ -1260,7 +1258,7 @@
   <dimension ref="C6:Q14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="1" sqref="F7 G29"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1319,34 +1317,34 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>4</v>
@@ -1357,87 +1355,87 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="J8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="P8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,43 +1443,43 @@
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,85 +1487,85 @@
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,43 +1573,43 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,7 +1636,7 @@
   <dimension ref="C6:Q14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="F7 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1697,34 +1695,34 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>4</v>
@@ -1735,87 +1733,87 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="J8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="P8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,43 +1821,43 @@
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,85 +1865,85 @@
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,43 +1951,43 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,7 +2014,7 @@
   <dimension ref="C6:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="1" sqref="F7 F23"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2061,13 +2059,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,10 +2079,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -2093,13 +2091,13 @@
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,13 +2111,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,13 +2125,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,13 +2139,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,7 +2172,7 @@
   <dimension ref="C6:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="F7 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2219,13 +2217,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,28 +2234,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,13 +2269,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,13 +2283,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,13 +2297,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,7 +2330,7 @@
   <dimension ref="C6:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="F7 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2384,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>
@@ -2395,22 +2393,22 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="G8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,10 +2425,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2442,13 +2440,13 @@
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2478,19 +2476,19 @@
   <dimension ref="C6:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="1" sqref="F7 H8"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="11" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="10.96"/>
@@ -2530,7 +2528,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>
@@ -2541,22 +2539,22 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="G8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,13 +2568,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2585,13 +2583,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
@@ -2612,19 +2610,19 @@
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -2635,19 +2633,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0.8</v>
@@ -2658,19 +2656,19 @@
         <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>0.6</v>
@@ -2681,19 +2679,19 @@
         <v>12</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>0.4</v>
@@ -2722,19 +2720,18 @@
   </sheetPr>
   <dimension ref="C6:I15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="1" sqref="F7 I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="10" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="10.96"/>
@@ -2767,10 +2764,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>4</v>
@@ -2781,18 +2778,18 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5"/>
@@ -2807,19 +2804,17 @@
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,44 +2830,46 @@
         <v>12</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
@@ -2880,6 +2877,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F14" r:id="rId1" display="https://bbbproject.sakura.ne.jp/www/project_webgl/Test04/text.txt"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2897,7 +2897,7 @@
   </sheetPr>
   <dimension ref="C6:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2915,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2940,21 +2940,21 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,10 +2962,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,37 +2973,37 @@
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2"/>
       <c r="D13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/unity_2018_4/Assets/Editor/Excel/excel.xlsx
+++ b/unity_2018_4/Assets/Editor/Excel/excel.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="122">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -162,24 +162,7 @@
     <t xml:space="preserve">&lt;editordata&gt;</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Editor/Excel_Output/editor_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">data.json</t>
-    </r>
+    <t xml:space="preserve">Editor/Resources/Editor/Test12/editor_data.json</t>
   </si>
   <si>
     <t xml:space="preserve">data_list</t>
@@ -188,7 +171,7 @@
     <t xml:space="preserve">&lt;releasedata&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/Excel_Output/release_data.json</t>
+    <t xml:space="preserve">Resources/Test12/release_data.json</t>
   </si>
   <si>
     <t xml:space="preserve">int</t>
@@ -506,7 +489,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">se</t>
+    <t xml:space="preserve">SE</t>
   </si>
   <si>
     <t xml:space="preserve">Editor/Prefab/se</t>
@@ -518,7 +501,7 @@
     <t xml:space="preserve">&lt;resources_texture&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">ui_button</t>
+    <t xml:space="preserve">UI_BUTTON</t>
   </si>
   <si>
     <t xml:space="preserve">Common/Texture/ui_button</t>
@@ -527,16 +510,19 @@
     <t xml:space="preserve">&lt;streamingassets_texture&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">ui_button_active</t>
+    <t xml:space="preserve">SKYIMAGE</t>
   </si>
   <si>
     <t xml:space="preserve">Common/Texture/skyimage.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">test12で使用</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;url_text&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">test04_text</t>
+    <t xml:space="preserve">TEST04_TEXT</t>
   </si>
   <si>
     <t xml:space="preserve">https://bbbproject.sakura.ne.jp/www/project_webgl/Test04/text.txt</t>
@@ -1037,7 +1023,7 @@
   <dimension ref="C6:J16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1045,9 +1031,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="10.96"/>
   </cols>
@@ -2718,18 +2704,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:I15"/>
+  <dimension ref="C6:I16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.17"/>
@@ -2854,31 +2840,41 @@
       <c r="F13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2"/>
-      <c r="D14" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="https://bbbproject.sakura.ne.jp/www/project_webgl/Test04/text.txt"/>
+    <hyperlink ref="F15" r:id="rId1" display="https://bbbproject.sakura.ne.jp/www/project_webgl/Test04/text.txt"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2915,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,7 +2939,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,7 +2947,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>39</v>
@@ -2962,10 +2958,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,10 +2969,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,26 +2980,26 @@
         <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2"/>
       <c r="D13" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/unity_2018_4/Assets/Editor/Excel/excel.xlsx
+++ b/unity_2018_4/Assets/Editor/Excel/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="convert" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,8 +15,8 @@
     <sheet name="test_enum_2" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="se_header" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="se_list" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="data_list" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="textid" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="textid" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="data_list" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="137">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -42,6 +42,9 @@
     <t xml:space="preserve">string</t>
   </si>
   <si>
+    <t xml:space="preserve">-comment</t>
+  </si>
+  <si>
     <t xml:space="preserve">[end]</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
     <t xml:space="preserve">convert_command</t>
   </si>
   <si>
+    <t xml:space="preserve">convert_param</t>
+  </si>
+  <si>
     <t xml:space="preserve">convert_output</t>
   </si>
   <si>
@@ -72,6 +78,9 @@
     <t xml:space="preserve">&lt;json&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">JSON作成</t>
+  </si>
+  <si>
     <t xml:space="preserve">Editor/Excel_Output/test_json.json</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;enum&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENUM作成</t>
   </si>
   <si>
     <r>
@@ -110,6 +122,9 @@
     <t xml:space="preserve">test_enum_2</t>
   </si>
   <si>
+    <t xml:space="preserve">ＳＥ用ENUM作成</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -139,6 +154,9 @@
     <t xml:space="preserve">&lt;se&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">ＳＥ用プレハブ作成</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -159,7 +177,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">&lt;editordata&gt;</t>
+    <t xml:space="preserve">&lt;data&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;debug&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データ用ＪＳＯＮ作成、アセットバンドルを使用しない</t>
   </si>
   <si>
     <t xml:space="preserve">Editor/Resources/Editor/Test12/editor_data.json</t>
@@ -168,18 +192,36 @@
     <t xml:space="preserve">data_list</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;releasedata&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resources/Test12/release_data.json</t>
+    <t xml:space="preserve">&lt;release&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データ用ＪＳＯＮ作成、アセットバンドルを使用する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;standalonewindows&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データ用アセットバンドル作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/AssetBundle/StandaloneWindows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;android&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/AssetBundle/Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;webgl&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/AssetBundle/WebGL</t>
   </si>
   <si>
     <t xml:space="preserve">int</t>
   </si>
   <si>
-    <t xml:space="preserve">-comment</t>
-  </si>
-  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -322,6 +364,9 @@
   </si>
   <si>
     <t xml:space="preserve">自動生成。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_assetspath</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -414,6 +459,70 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">textid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A案</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXTID_COMMON_GOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴールド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXTID_COMMON_GET</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;&lt;0&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">&lt;&lt;TEXTID_COMMON_GOLD&gt;&gt;獲得しました。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B案</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;&lt;0&gt;&gt;&lt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">TEXTID_COMMON_GOLD&gt;&gt;獲得しました。</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">data_command</t>
   </si>
   <si>
@@ -457,7 +566,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">data_packname</t>
+    <t xml:space="preserve">data_assetbundle_name</t>
   </si>
   <si>
     <r>
@@ -492,7 +601,7 @@
     <t xml:space="preserve">SE</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/Prefab/se</t>
+    <t xml:space="preserve">Editor/Test12/se</t>
   </si>
   <si>
     <t xml:space="preserve">se.assetbundle</t>
@@ -526,70 +635,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://bbbproject.sakura.ne.jp/www/project_webgl/Test04/text.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A案</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEXTID_COMMON_GOLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゴールド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEXTID_COMMON_GET</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;&lt;0&gt;&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">&lt;&lt;TEXTID_COMMON_GOLD&gt;&gt;獲得しました。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">B案</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;&lt;0&gt;&gt;&lt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">TEXTID_COMMON_GOLD&gt;&gt;獲得しました。</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1020,22 +1065,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:J16"/>
+  <dimension ref="C6:L19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="13.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="38.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,11 +1092,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="0"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
@@ -1063,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
@@ -1075,22 +1123,26 @@
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1099,6 +1151,12 @@
       </c>
       <c r="I8" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,120 +1167,219 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="G10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1303,304 +1460,304 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="3"/>
@@ -1681,304 +1838,304 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2157,7 @@
   <dimension ref="C6:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2019,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -2037,21 +2194,21 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,28 +2219,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,49 +2251,49 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2177,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -2195,21 +2352,21 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,28 +2377,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,49 +2409,49 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -2368,33 +2525,33 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,13 +2565,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2423,16 +2580,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2440,7 +2597,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2462,7 +2619,7 @@
   <dimension ref="C6:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2485,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -2514,33 +2671,33 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,13 +2711,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2569,13 +2726,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
@@ -2593,22 +2750,22 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -2616,22 +2773,22 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0.8</v>
@@ -2639,22 +2796,22 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>0.6</v>
@@ -2662,22 +2819,22 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>0.4</v>
@@ -2685,7 +2842,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2700,193 +2857,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="C6:I16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="10" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="10.96"/>
-  </cols>
-  <sheetData>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="2"/>
-      <c r="D15" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1" display="https://bbbproject.sakura.ne.jp/www/project_webgl/Test04/text.txt"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2911,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,83 +2898,83 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2"/>
       <c r="D13" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3016,4 +2986,192 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:I16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="10" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2"/>
+      <c r="D15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F15" r:id="rId1" display="https://bbbproject.sakura.ne.jp/www/project_webgl/Test04/text.txt"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/unity_2018_4/Assets/Editor/Excel/excel.xlsx
+++ b/unity_2018_4/Assets/Editor/Excel/excel.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="148">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -157,24 +157,7 @@
     <t xml:space="preserve">ＳＥ用プレハブ作成</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Editor/Excel_Output/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">se.prefab</t>
-    </r>
+    <t xml:space="preserve">Editor/Resources/Editor/Test12/se.prefab</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;data&gt;</t>
@@ -569,23 +552,78 @@
     <t xml:space="preserve">data_assetbundle_name</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;resources_prefab&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESOURCES_PREFAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/Test12/se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test12.assetbundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;resources_texture&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESOURCES_TEXTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/Test12/texture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;resources_text&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESOURCES_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/Test12/text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;streamingassets_texture&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREAMINGASSETS_TEXTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;streamingassets_text&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREAMINGASSETS_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;streamingassets_binary&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREAMINGASSETS_BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;url_texture&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL_TEXTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/texture.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;url_text&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL_TEXT</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF0000FF"/>
         <rFont val="MS UI Gothic"/>
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">resources</t>
+      <t xml:space="preserve">https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/</t>
     </r>
     <r>
       <rPr>
@@ -594,47 +632,35 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">_prefab&gt;</t>
+      <t xml:space="preserve">text.txt</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/Test12/se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se.assetbundle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;resources_texture&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_BUTTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common/Texture/ui_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;streamingassets_texture&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKYIMAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common/Texture/skyimage.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test12で使用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;url_text&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST04_TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bbbproject.sakura.ne.jp/www/project_webgl/Test04/text.txt</t>
+    <t xml:space="preserve">&lt;url_binary&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL_BINARY</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">binary</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1067,8 +1093,8 @@
   </sheetPr>
   <dimension ref="C6:L19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1400,7 +1426,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1778,7 +1804,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2182,7 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2314,7 +2340,7 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2472,7 +2498,7 @@
   </sheetPr>
   <dimension ref="C6:J12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2618,7 +2644,7 @@
   </sheetPr>
   <dimension ref="C6:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2863,7 +2889,7 @@
   </sheetPr>
   <dimension ref="C6:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2993,24 +3019,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:I16"/>
+  <dimension ref="C6:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="56.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="10" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,10 +3045,6 @@
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,7 +3083,7 @@
       <c r="F8" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
         <v>122</v>
       </c>
@@ -3094,77 +3115,157 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="E13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>136</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="2"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1" display="https://bbbproject.sakura.ne.jp/www/project_webgl/Test04/text.txt"/>
+    <hyperlink ref="F16" r:id="rId1" display="https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/texture.png"/>
+    <hyperlink ref="F17" r:id="rId2" display="https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/"/>
+    <hyperlink ref="F18" r:id="rId3" display="https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/unity_2018_4/Assets/Editor/Excel/excel.xlsx
+++ b/unity_2018_4/Assets/Editor/Excel/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="convert" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="152">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">データ用ＪＳＯＮ作成、アセットバンドルを使用しない</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/Resources/Editor/Test12/editor_data.json</t>
+    <t xml:space="preserve">Editor/Resources/Editor/Test12/debug_data.json</t>
   </si>
   <si>
     <t xml:space="preserve">data_list</t>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">データ用ＪＳＯＮ作成、アセットバンドルを使用する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources/Test12/release_data.json</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;standalonewindows&gt;</t>
@@ -588,18 +591,27 @@
     <t xml:space="preserve">STREAMINGASSETS_TEXTURE</t>
   </si>
   <si>
+    <t xml:space="preserve">Test12/texture.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;streamingassets_text&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">STREAMINGASSETS_TEXT</t>
   </si>
   <si>
+    <t xml:space="preserve">Test12/text.txt</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;streamingassets_binary&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">STREAMINGASSETS_BINARY</t>
   </si>
   <si>
+    <t xml:space="preserve">Test12/binary</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;url_texture&gt;</t>
   </si>
   <si>
@@ -615,25 +627,7 @@
     <t xml:space="preserve">URL_TEXT</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">text.txt</t>
-    </r>
+    <t xml:space="preserve">https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/text.txt</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;url_binary&gt;</t>
@@ -642,25 +636,7 @@
     <t xml:space="preserve">URL_BINARY</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">binary</t>
-    </r>
+    <t xml:space="preserve">https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/binary</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1069,8 @@
   </sheetPr>
   <dimension ref="C6:L19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1103,7 +1079,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="38.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="38.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="37.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.17"/>
@@ -1325,7 +1302,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>36</v>
@@ -1335,20 +1312,18 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>36</v>
@@ -1358,20 +1333,18 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>36</v>
@@ -1381,20 +1354,18 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>36</v>
@@ -1486,31 +1457,31 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>4</v>
@@ -1524,87 +1495,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,43 +1583,43 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,85 +1627,85 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,43 +1713,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,31 +1835,31 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>4</v>
@@ -1902,87 +1873,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,43 +1961,43 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,85 +2005,85 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,43 +2091,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,13 +2199,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,10 +2219,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -2260,13 +2231,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,13 +2251,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,13 +2265,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,13 +2279,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,13 +2357,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,28 +2374,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,13 +2409,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,13 +2423,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,13 +2437,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,7 +2522,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -2562,22 +2533,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,10 +2565,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2609,13 +2580,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2645,7 +2616,7 @@
   <dimension ref="C6:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2697,7 +2668,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -2708,22 +2679,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,13 +2708,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2752,13 +2723,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
@@ -2779,19 +2750,19 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -2802,19 +2773,19 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0.8</v>
@@ -2825,19 +2796,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>0.6</v>
@@ -2848,19 +2819,19 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>0.4</v>
@@ -2907,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,21 +2903,21 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,10 +2925,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,37 +2936,37 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2"/>
       <c r="D13" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,8 +2992,8 @@
   </sheetPr>
   <dimension ref="C6:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3075,17 +3046,17 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3101,17 +3072,17 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,17 +3090,17 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,17 +3108,17 @@
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,12 +3126,14 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
@@ -3169,12 +3142,14 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
@@ -3183,12 +3158,14 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
@@ -3197,13 +3174,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -3213,13 +3190,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -3229,13 +3206,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -3264,8 +3241,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F16" r:id="rId1" display="https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/texture.png"/>
-    <hyperlink ref="F17" r:id="rId2" display="https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/"/>
-    <hyperlink ref="F18" r:id="rId3" display="https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/"/>
+    <hyperlink ref="F17" r:id="rId2" display="https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/text.txt"/>
+    <hyperlink ref="F18" r:id="rId3" display="https://bbbproject.sakura.ne.jp/www/project_webgl/TestData/binary"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/unity_2018_4/Assets/Editor/Excel/excel.xlsx
+++ b/unity_2018_4/Assets/Editor/Excel/excel.xlsx
@@ -2992,8 +2992,8 @@
   </sheetPr>
   <dimension ref="C6:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/unity_2018_4/Assets/Editor/Excel/excel.xlsx
+++ b/unity_2018_4/Assets/Editor/Excel/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="convert" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="153">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -205,6 +205,9 @@
     <t xml:space="preserve">Editor/AssetBundle/WebGL</t>
   </si>
   <si>
+    <t xml:space="preserve">Resources/Test14/data.json</t>
+  </si>
+  <si>
     <t xml:space="preserve">int</t>
   </si>
   <si>
@@ -564,7 +567,7 @@
     <t xml:space="preserve">Editor/Test12/se</t>
   </si>
   <si>
-    <t xml:space="preserve">test12.assetbundle</t>
+    <t xml:space="preserve">test.assetbundle</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;resources_texture&gt;</t>
@@ -925,7 +928,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -955,6 +958,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1067,10 +1074,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:L19"/>
+  <dimension ref="C6:L20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1376,6 +1383,29 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1457,31 +1487,31 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>4</v>
@@ -1495,87 +1525,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,43 +1613,43 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,85 +1657,85 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,43 +1743,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,31 +1865,31 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>4</v>
@@ -1873,87 +1903,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,43 +1991,43 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,85 +2035,85 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,43 +2121,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,7 +2202,7 @@
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="3"/>
@@ -2199,13 +2229,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="E8" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,10 +2249,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -2231,13 +2261,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,13 +2281,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,13 +2295,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,13 +2309,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,13 +2387,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="E8" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,28 +2404,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,13 +2439,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,13 +2453,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,13 +2467,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -2533,22 +2563,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,10 +2595,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2580,13 +2610,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2668,7 +2698,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -2679,22 +2709,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,13 +2738,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2723,13 +2753,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
@@ -2750,19 +2780,19 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -2773,19 +2803,19 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0.8</v>
@@ -2796,19 +2826,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>0.6</v>
@@ -2819,19 +2849,19 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>0.4</v>
@@ -2878,10 +2908,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,21 +2933,21 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2925,10 +2955,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,37 +2966,37 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2"/>
       <c r="D13" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,8 +3022,8 @@
   </sheetPr>
   <dimension ref="C6:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3046,17 +3076,17 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>122</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3072,17 +3102,17 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3090,17 +3120,17 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,17 +3138,17 @@
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,13 +3156,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -3142,13 +3172,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -3158,13 +3188,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -3174,13 +3204,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="11" t="s">
         <v>145</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -3190,13 +3220,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="11" t="s">
         <v>148</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -3206,13 +3236,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="11" t="s">
         <v>151</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>

--- a/unity_2018_4/Assets/Editor/Excel/excel.xlsx
+++ b/unity_2018_4/Assets/Editor/Excel/excel.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="156">
   <si>
     <t xml:space="preserve">[root]</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t xml:space="preserve">Resources/Test12/release_data.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;dummy&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データ用ＪＳＯＮ作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/AssetBundle/Dummy/dummy.json</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;standalonewindows&gt;</t>
@@ -1074,10 +1083,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:L20"/>
+  <dimension ref="C6:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1319,11 +1328,13 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1348,10 +1359,10 @@
         <v>43</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>36</v>
@@ -1366,13 +1377,13 @@
         <v>32</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>36</v>
@@ -1382,20 +1393,18 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>36</v>
@@ -1406,6 +1415,29 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1487,31 +1519,31 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>4</v>
@@ -1525,87 +1557,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,43 +1645,43 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,85 +1689,85 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,43 +1775,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,31 +1897,31 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>4</v>
@@ -1903,87 +1935,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,43 +2023,43 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,85 +2067,85 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,43 +2153,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,13 +2261,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,10 +2281,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -2261,13 +2293,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,13 +2313,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,13 +2327,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,13 +2341,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,13 +2419,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,28 +2436,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,13 +2471,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,13 +2485,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,13 +2499,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -2563,22 +2595,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,10 +2627,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2610,13 +2642,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2698,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>5</v>
@@ -2709,22 +2741,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,13 +2770,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2753,13 +2785,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
@@ -2780,19 +2812,19 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -2803,19 +2835,19 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0.8</v>
@@ -2826,19 +2858,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>0.6</v>
@@ -2849,19 +2881,19 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>0.4</v>
@@ -2908,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,21 +2965,21 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,10 +2987,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,37 +2998,37 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2"/>
       <c r="D13" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,17 +3108,17 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,17 +3134,17 @@
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,17 +3152,17 @@
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,17 +3170,17 @@
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,13 +3188,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -3172,13 +3204,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -3188,13 +3220,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -3204,13 +3236,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -3220,13 +3252,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -3236,13 +3268,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>

--- a/unity_2018_4/Assets/Editor/Excel/excel.xlsx
+++ b/unity_2018_4/Assets/Editor/Excel/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="convert" sheetId="1" state="visible" r:id="rId2"/>
@@ -1085,8 +1085,8 @@
   </sheetPr>
   <dimension ref="C6:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3054,8 +3054,8 @@
   </sheetPr>
   <dimension ref="C6:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/unity_2018_4/Assets/Editor/Excel/excel.xlsx
+++ b/unity_2018_4/Assets/Editor/Excel/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="convert" sheetId="1" state="visible" r:id="rId2"/>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">データ用ＪＳＯＮ作成</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/AssetBundle/Dummy/dummy.json</t>
+    <t xml:space="preserve">Editor/AssetBundle/Dummy</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;standalonewindows&gt;</t>
@@ -1085,8 +1085,8 @@
   </sheetPr>
   <dimension ref="C6:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3054,7 +3054,7 @@
   </sheetPr>
   <dimension ref="C6:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
